--- a/src/DataFixtures/members_fixtures.xlsx
+++ b/src/DataFixtures/members_fixtures.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t xml:space="preserve">noms</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">téléphone</t>
   </si>
   <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linnea Krügel</t>
   </si>
   <si>
@@ -131,12 +134,6 @@
     <t xml:space="preserve">+41 21 979 27 75</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonne-espérance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	079</t>
-  </si>
-  <si>
     <t xml:space="preserve">Levin Fankhauser</t>
   </si>
   <si>
@@ -158,12 +155,6 @@
     <t xml:space="preserve">Joel17@outlook.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Vanil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	078</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marlo Piguet</t>
   </si>
   <si>
@@ -176,27 +167,12 @@
     <t xml:space="preserve">+41 21 106 96 57</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabandan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jamie Huguenin</t>
   </si>
   <si>
     <t xml:space="preserve">710 Avenue d'Evilard</t>
   </si>
   <si>
-    <t xml:space="preserve">50A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flavia Küng</t>
   </si>
   <si>
@@ -206,9 +182,6 @@
     <t xml:space="preserve">+41 21 328 84 18</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonne-Espérance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chloé Hediger</t>
   </si>
   <si>
@@ -221,9 +194,6 @@
     <t xml:space="preserve">+41 21 715 65 82</t>
   </si>
   <si>
-    <t xml:space="preserve">Léman</t>
-  </si>
-  <si>
     <t xml:space="preserve">Melanie Blazer</t>
   </si>
   <si>
@@ -233,12 +203,6 @@
     <t xml:space="preserve">Alisa.Quinodoz36@bluewin.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Faverges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	077</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sara Leutenegger</t>
   </si>
   <si>
@@ -252,12 +216,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sam_Ostervald@bluewin.ch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florimont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6A</t>
   </si>
   <si>
     <t xml:space="preserve">Yaro Schweitz</t>
@@ -330,7 +288,7 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,7 +346,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,7 +354,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -423,19 +381,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>148680</xdr:colOff>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Text Frame 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="360" y="525960"/>
-          <a:ext cx="9089280" cy="3875400"/>
+          <a:ext cx="9088560" cy="3874680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -445,11 +403,22 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -461,11 +430,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -477,6 +456,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -488,6 +472,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -499,6 +488,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -510,6 +504,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -521,11 +520,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -537,6 +546,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -554,6 +568,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -571,6 +590,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -588,6 +612,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -605,6 +634,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -622,6 +656,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -639,6 +678,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -656,6 +700,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -673,11 +722,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -695,6 +754,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -706,11 +770,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -722,6 +796,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -741,12 +820,15 @@
   <dimension ref="A1:DA21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -766,531 +848,383 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="S5" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="T5" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="V5" s="1" t="n">
-        <v>62</v>
-      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="L7" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>28</v>
-      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="U9" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="V9" s="1" t="n">
-        <v>271</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM10" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BE10" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="BF10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG10" s="1" t="n">
-        <v>29</v>
-      </c>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="CX11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CY11" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="CZ11" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="DA11" s="1" t="n">
-        <v>56</v>
-      </c>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="E12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="CS12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="CT12" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="CU12" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="CV12" s="1" t="n">
-        <v>15</v>
-      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV13" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="AW13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="1" t="n">
-        <v>54</v>
-      </c>
+      <c r="I13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO14" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="AP14" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="AQ14" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR14" s="1" t="n">
-        <v>61</v>
-      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="BH15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI15" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="BJ15" s="1" t="n">
-        <v>912</v>
-      </c>
-      <c r="BK15" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="BL15" s="1" t="n">
-        <v>81</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA16" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="CH16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CI16" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="CJ16" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="CK16" s="1" t="n">
-        <v>6</v>
-      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+      <c r="CJ16" s="1"/>
+      <c r="CK16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>69</v>
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="Y17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z17" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="CE17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CF17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CG17" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="CH17" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="CI17" s="1" t="n">
-        <v>56</v>
-      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="P18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q18" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="BL18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM18" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="BN18" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="BO18" s="1" t="n">
-        <v>38</v>
-      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="W19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG19" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="CH19" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="CI19" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="CJ19" s="1" t="n">
-        <v>94</v>
-      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>81</v>
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>84</v>
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1318,13 +1252,13 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>85</v>
+      <c r="A1" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/src/DataFixtures/members_fixtures.xlsx
+++ b/src/DataFixtures/members_fixtures.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t xml:space="preserve">noms</t>
   </si>
@@ -41,6 +41,9 @@
     <t xml:space="preserve">parent</t>
   </si>
   <si>
+    <t xml:space="preserve">sympatisant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linnea Krügel</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t xml:space="preserve">Jaden_Rousseau17@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">non</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jara Schnider, Yannick Humbert-Droz</t>
   </si>
   <si>
@@ -234,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve">Laurin_Dubochet38@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oui</t>
   </si>
   <si>
     <t xml:space="preserve">Code-gen</t>
@@ -381,9 +390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>147240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -393,7 +402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="360" y="525960"/>
-          <a:ext cx="9088560" cy="3874680"/>
+          <a:ext cx="9087840" cy="3873960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -820,15 +829,15 @@
   <dimension ref="A1:DA21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -851,159 +860,195 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>9</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
@@ -1014,16 +1059,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="CX11" s="1"/>
       <c r="CY11" s="1"/>
@@ -1032,20 +1080,21 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="CS12" s="1"/>
       <c r="CT12" s="1"/>
       <c r="CU12" s="1"/>
@@ -1053,23 +1102,23 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
@@ -1077,17 +1126,18 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
@@ -1096,19 +1146,20 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="1"/>
@@ -1117,22 +1168,23 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="CH16" s="1"/>
       <c r="CI16" s="1"/>
       <c r="CJ16" s="1"/>
@@ -1140,20 +1192,21 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="CE17" s="1"/>
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
@@ -1162,17 +1215,18 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="G18" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="BL18" s="1"/>
       <c r="BM18" s="1"/>
       <c r="BN18" s="1"/>
@@ -1180,20 +1234,21 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="CG19" s="1"/>
       <c r="CH19" s="1"/>
       <c r="CI19" s="1"/>
@@ -1201,33 +1256,45 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G21" type="list">
+      <formula1>"oui,non"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1253,12 +1320,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
